--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230808069</t>
+          <t>GSD230925033</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ23880069-N002</t>
+          <t>BJ239Q0033-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230808068</t>
+          <t>GSD230925034</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ23880068-N002</t>
+          <t>BJ239Q0034-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230808067</t>
+          <t>GSD230925035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ23880067-N002</t>
+          <t>BJ239Q0035-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230808066</t>
+          <t>GSD230925031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ23880066-N002</t>
+          <t>BJ239Q0031-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230808070</t>
+          <t>GSD230925032</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ23880070-N002</t>
+          <t>BJ239Q0032-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230808036A002</t>
+          <t>GSD230925001A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23880036</t>
+          <t>239Q0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230808037A002</t>
+          <t>GSD230925002A002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23880037</t>
+          <t>239Q0002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230808038A002</t>
+          <t>GSD230925003A002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23880038</t>
+          <t>239Q0003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230808039A002</t>
+          <t>GSD230925004A002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23880039</t>
+          <t>239Q0004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230808040A002</t>
+          <t>GSD230925005A002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23880040</t>
+          <t>239Q0005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230808041A002</t>
+          <t>GSD230925006A002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23880041</t>
+          <t>239Q0006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230808042A002</t>
+          <t>GSD230925007A002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23880042</t>
+          <t>239Q0007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230808043A002</t>
+          <t>GSD230925008A002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23880043</t>
+          <t>239Q0008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230808044A002</t>
+          <t>GSD230925009A002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23880044</t>
+          <t>239Q0009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230808045A002</t>
+          <t>GSD230925010A002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23880045</t>
+          <t>239Q0010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230808046A002</t>
+          <t>GSD230925011A002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23880046</t>
+          <t>239Q0011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230808047A002</t>
+          <t>GSD230925012A002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23880047</t>
+          <t>239Q0012</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230808048A002</t>
+          <t>GSD230925013A002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23880048</t>
+          <t>239Q0013</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230808049A002</t>
+          <t>GSD230925014A002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23880049</t>
+          <t>239Q0014</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230808050A002</t>
+          <t>GSD230925015A002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23880050</t>
+          <t>239Q0015</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -854,19 +854,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSD230808051A002</t>
+          <t>GSD230925016A002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23880051</t>
+          <t>239Q0016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -876,19 +876,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSD230808052A002</t>
+          <t>GSD230925017A002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23880052</t>
+          <t>239Q0017</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSD230808053A002</t>
+          <t>GSD230925018A002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23880053</t>
+          <t>239Q0018</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -920,19 +920,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSD230808054A002</t>
+          <t>GSD230925019A002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23880054</t>
+          <t>239Q0019</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSD230808055A002</t>
+          <t>GSD230925020A002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23880055</t>
+          <t>239Q0020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YBCL2023080800001</t>
+          <t>YBCL2023092500001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230925033</t>
+          <t>GSD230926088</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ239Q0033-N002</t>
+          <t>BJ239R0088-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230925034</t>
+          <t>GSD230926089</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ239Q0034-N002</t>
+          <t>BJ239R0089-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230925035</t>
+          <t>GSD230926090</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ239Q0035-N002</t>
+          <t>BJ239R0090-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230925031</t>
+          <t>GSD230926087</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ239Q0031-N002</t>
+          <t>BJ239R0087-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230925032</t>
+          <t>GSD230926086</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ239Q0032-N002</t>
+          <t>BJ239R0086-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230925001A002</t>
+          <t>GSD230926056A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239Q0001</t>
+          <t>239R0056</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230925002A002</t>
+          <t>GSD230926057A002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>239Q0002</t>
+          <t>239R0057</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230925003A002</t>
+          <t>GSD230926058A002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>239Q0003</t>
+          <t>239R0058</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230925004A002</t>
+          <t>GSD230926059A002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>239Q0004</t>
+          <t>239R0059</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230925005A002</t>
+          <t>GSD230926060A002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>239Q0005</t>
+          <t>239R0060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230925006A002</t>
+          <t>GSD230926061A002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>239Q0006</t>
+          <t>239R0061</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230925007A002</t>
+          <t>GSD230926062A002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>239Q0007</t>
+          <t>239R0062</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230925008A002</t>
+          <t>GSD230926063A002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>239Q0008</t>
+          <t>239R0063</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230925009A002</t>
+          <t>GSD230926064A002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>239Q0009</t>
+          <t>239R0064</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230925010A002</t>
+          <t>GSD230926065A002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>239Q0010</t>
+          <t>239R0065</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230925011A002</t>
+          <t>GSD230926066A002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>239Q0011</t>
+          <t>239R0066</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230925012A002</t>
+          <t>GSD230926067A002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>239Q0012</t>
+          <t>239R0067</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230925013A002</t>
+          <t>GSD230926068A002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>239Q0013</t>
+          <t>239R0068</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230925014A002</t>
+          <t>GSD230926069A002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>239Q0014</t>
+          <t>239R0069</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230925015A002</t>
+          <t>GSD230926070A002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>239Q0015</t>
+          <t>239R0070</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -854,19 +854,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSD230925016A002</t>
+          <t>GSD230926071A002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>239Q0016</t>
+          <t>239R0071</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -876,19 +876,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSD230925017A002</t>
+          <t>GSD230926072A002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>239Q0017</t>
+          <t>239R0072</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSD230925018A002</t>
+          <t>GSD230926073A002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>239Q0018</t>
+          <t>239R0073</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -920,19 +920,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSD230925019A002</t>
+          <t>GSD230926074A002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>239Q0019</t>
+          <t>239R0074</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSD230925020A002</t>
+          <t>GSD230926075A002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>239Q0020</t>
+          <t>239R0075</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YBCL2023092500001</t>
+          <t>YBCL2023092600002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD230926088</t>
+          <t>GSD231027034</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ239R0088-N002</t>
+          <t>BJ230S0034-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD230926089</t>
+          <t>GSD231027035</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ239R0089-N002</t>
+          <t>BJ230S0035-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD230926090</t>
+          <t>GSD231027031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ239R0090-N002</t>
+          <t>BJ230S0031-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD230926087</t>
+          <t>GSD231027032</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ239R0087-N002</t>
+          <t>BJ230S0032-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD230926086</t>
+          <t>GSD231027033</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ239R0086-N002</t>
+          <t>BJ230S0033-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD230926056A002</t>
+          <t>GSD231027001A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>239R0056</t>
+          <t>230S0001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD230926057A002</t>
+          <t>GSD231027002A002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>239R0057</t>
+          <t>230S0002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD230926058A002</t>
+          <t>GSD231027003A002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>239R0058</t>
+          <t>230S0003</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD230926059A002</t>
+          <t>GSD231027004A002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>239R0059</t>
+          <t>230S0004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD230926060A002</t>
+          <t>GSD231027005A002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>239R0060</t>
+          <t>230S0005</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD230926061A002</t>
+          <t>GSD231027006A002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>239R0061</t>
+          <t>230S0006</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD230926062A002</t>
+          <t>GSD231027007A002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>239R0062</t>
+          <t>230S0007</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD230926063A002</t>
+          <t>GSD231027008A002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>239R0063</t>
+          <t>230S0008</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD230926064A002</t>
+          <t>GSD231027009A002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>239R0064</t>
+          <t>230S0009</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD230926065A002</t>
+          <t>GSD231027010A002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>239R0065</t>
+          <t>230S0010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD230926066A002</t>
+          <t>GSD231027011A002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>239R0066</t>
+          <t>230S0011</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD230926067A002</t>
+          <t>GSD231027012A002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>239R0067</t>
+          <t>230S0012</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD230926068A002</t>
+          <t>GSD231027013A002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>239R0068</t>
+          <t>230S0013</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD230926069A002</t>
+          <t>GSD231027014A002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>239R0069</t>
+          <t>230S0014</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD230926070A002</t>
+          <t>GSD231027015A002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>239R0070</t>
+          <t>230S0015</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -854,19 +854,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSD230926071A002</t>
+          <t>GSD231027016A002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>239R0071</t>
+          <t>230S0016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -876,19 +876,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSD230926072A002</t>
+          <t>GSD231027017A002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>239R0072</t>
+          <t>230S0017</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSD230926073A002</t>
+          <t>GSD231027018A002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>239R0073</t>
+          <t>230S0018</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -920,19 +920,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSD230926074A002</t>
+          <t>GSD231027019A002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>239R0074</t>
+          <t>230S0019</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSD230926075A002</t>
+          <t>GSD231027020A002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>239R0075</t>
+          <t>230S0020</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YBCL2023092600002</t>
+          <t>YBCL2023102700001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD231027034</t>
+          <t>GSD240116035</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ230S0034-N002</t>
+          <t>BJ241F0038-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD231027035</t>
+          <t>GSD240116037</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ230S0035-N002</t>
+          <t>BJ241F0040-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD231027031</t>
+          <t>GSD240116038</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ230S0031-N002</t>
+          <t>BJ241F0041-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD231027032</t>
+          <t>GSD240116036</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ230S0032-N002</t>
+          <t>BJ241F0039-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD231027033</t>
+          <t>GSD240116039</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ230S0033-N002</t>
+          <t>BJ241F0042-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD231027001A002</t>
+          <t>GSD240116005A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>230S0001</t>
+          <t>241F0008</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD231027002A002</t>
+          <t>GSD240116006A002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>230S0002</t>
+          <t>241F0009</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD231027003A002</t>
+          <t>GSD240116007A002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>230S0003</t>
+          <t>241F0010</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD231027004A002</t>
+          <t>GSD240116008A002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>230S0004</t>
+          <t>241F0011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD231027005A002</t>
+          <t>GSD240116009A002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>230S0005</t>
+          <t>241F0012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD231027006A002</t>
+          <t>GSD240116010A002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>230S0006</t>
+          <t>241F0013</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD231027007A002</t>
+          <t>GSD240116011A002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>230S0007</t>
+          <t>241F0014</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD231027008A002</t>
+          <t>GSD240116012A002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>230S0008</t>
+          <t>241F0015</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD231027009A002</t>
+          <t>GSD240116013A002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>230S0009</t>
+          <t>241F0016</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD231027010A002</t>
+          <t>GSD240116014A002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>230S0010</t>
+          <t>241F0017</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -744,19 +744,19 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GSD231027011A002</t>
+          <t>GSD240116015A002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>230S0011</t>
+          <t>241F0018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -766,19 +766,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GSD231027012A002</t>
+          <t>GSD240116016A002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>230S0012</t>
+          <t>241F0019</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -788,19 +788,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GSD231027013A002</t>
+          <t>GSD240116017A002</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>230S0013</t>
+          <t>241F0020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -810,19 +810,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GSD231027014A002</t>
+          <t>GSD240116018A002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>230S0014</t>
+          <t>241F0021</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -832,19 +832,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GSD231027015A002</t>
+          <t>GSD240116019A002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>230S0015</t>
+          <t>241F0022</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -854,19 +854,19 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GSD231027016A002</t>
+          <t>GSD240116020A002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>230S0016</t>
+          <t>241F0023</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -876,19 +876,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GSD231027017A002</t>
+          <t>GSD240116021A002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>230S0017</t>
+          <t>241F0024</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -898,19 +898,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GSD231027018A002</t>
+          <t>GSD240116022A002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>230S0018</t>
+          <t>241F0025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -920,19 +920,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GSD231027019A002</t>
+          <t>GSD240116023A002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>230S0019</t>
+          <t>241F0026</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -942,19 +942,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSD231027020A002</t>
+          <t>GSD240116024A002</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>230S0020</t>
+          <t>241F0027</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>YBCL2023102700001</t>
+          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116035</t>
+          <t>GSD240116238</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241F0038-N002</t>
+          <t>BJ241F0236-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116037</t>
+          <t>GSD240116239</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241F0040-N002</t>
+          <t>BJ241F0237-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116038</t>
+          <t>GSD240116240</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241F0041-N002</t>
+          <t>BJ241F0238-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116036</t>
+          <t>GSD240116237</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241F0039-N002</t>
+          <t>BJ241F0235-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,457 +514,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240116039</t>
+          <t>GSD240116241</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241F0042-N002</t>
+          <t>BJ241F0239-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>DNA+耐药</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GSD240116005A002</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>241F0008</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GSD240116006A002</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>241F0009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>GSD240116007A002</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>241F0010</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GSD240116008A002</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>241F0011</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>GSD240116009A002</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>241F0012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>GSD240116010A002</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>241F0013</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>GSD240116011A002</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>241F0014</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GSD240116012A002</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>241F0015</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GSD240116013A002</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>241F0016</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>GSD240116014A002</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>241F0017</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>GSD240116015A002</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>241F0018</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GSD240116016A002</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>241F0019</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>GSD240116017A002</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>241F0020</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GSD240116018A002</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>241F0021</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>GSD240116019A002</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>241F0022</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GSD240116020A002</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>241F0023</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>GSD240116021A002</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>241F0024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>GSD240116022A002</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>241F0025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>GSD240116023A002</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>241F0026</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GSD240116024A002</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>241F0027</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>核酸提取</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>YBCLD2024011600001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240116238</t>
+          <t>GSD240130079</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241F0236-N002</t>
+          <t>BJ241V0077-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240116239</t>
+          <t>GSD240130080</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241F0237-N002</t>
+          <t>BJ241V0078-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240116240</t>
+          <t>GSD240130081</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241F0238-N002</t>
+          <t>BJ241V0079-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240116237</t>
+          <t>GSD240130082</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241F0235-N002</t>
+          <t>BJ241V0080-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,17 +514,237 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240116241</t>
+          <t>GSD240130083</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241F0239-N002</t>
+          <t>BJ241V0081-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>DNA+耐药</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GSD240130064A002</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241V0062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GSD240130065A002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>241V0063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GSD240130066A002</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>241V0064</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GSD240130067A002</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>241V0065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GSD240130068A002</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>241V0066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GSD240130069A002</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>241V0067</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GSD240130070A002</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>241V0068</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GSD240130071A002</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>241V0069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GSD240130072A002</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>241V0070</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSD240130073A002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241V0071</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>核酸提取</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>YBCLD2024013000002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/hstq_id_lims_mNGS.xlsx
+++ b/data/excel_doc/hstq_id_lims_mNGS.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSD240130079</t>
+          <t>GSD240219061</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BJ241V0077-N002</t>
+          <t>BJ242J0061-N002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -463,12 +463,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GSD240130080</t>
+          <t>GSD240219065</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BJ241V0078-N002</t>
+          <t>BJ242J0065-N002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GSD240130081</t>
+          <t>GSD240219062</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BJ241V0079-N002</t>
+          <t>BJ242J0062-N002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -497,12 +497,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GSD240130082</t>
+          <t>GSD240219064</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BJ241V0080-N002</t>
+          <t>BJ242J0064-N002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -514,12 +514,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GSD240130083</t>
+          <t>GSD240219063</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BJ241V0081-N002</t>
+          <t>BJ242J0063-N002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GSD240130064A002</t>
+          <t>GSD240219046A002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>241V0062</t>
+          <t>242J0046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -546,19 +546,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GSD240130065A002</t>
+          <t>GSD240219047A002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>241V0063</t>
+          <t>242J0047</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -568,19 +568,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GSD240130066A002</t>
+          <t>GSD240219048A002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>241V0064</t>
+          <t>242J0048</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GSD240130067A002</t>
+          <t>GSD240219049A002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>241V0065</t>
+          <t>242J0049</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GSD240130068A002</t>
+          <t>GSD240219050A002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>241V0066</t>
+          <t>242J0050</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -634,19 +634,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GSD240130069A002</t>
+          <t>GSD240219051A002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>241V0067</t>
+          <t>242J0051</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -656,19 +656,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GSD240130070A002</t>
+          <t>GSD240219052A002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>241V0068</t>
+          <t>242J0052</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSD240130071A002</t>
+          <t>GSD240219053A002</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>241V0069</t>
+          <t>242J0053</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -700,19 +700,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GSD240130072A002</t>
+          <t>GSD240219054A002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>241V0070</t>
+          <t>242J0054</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -722,19 +722,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GSD240130073A002</t>
+          <t>GSD240219055A002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>241V0071</t>
+          <t>242J0055</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>YBCLD2024013000002</t>
+          <t>YBCLD2024021900002</t>
         </is>
       </c>
     </row>
